--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_7/Product_TOC_School_AlignmnetCode-7.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_7/Product_TOC_School_AlignmnetCode-7.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3960" tabRatio="355"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
   <si>
     <t>Program Title</t>
   </si>
@@ -362,12 +367,6 @@
   </si>
   <si>
     <t>isbn 13 updated</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Program</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
     <t>Print awareness 4</t>
@@ -425,13 +424,23 @@
     <t>ELA.LA.20</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_AlignCode_J1</t>
+    <t>Feldman_Product_TOC_Program_K2</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Course_K2</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_AlignCode_K1</t>
+  </si>
+  <si>
+    <t>EO1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -563,6 +572,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -821,57 +838,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -879,13 +896,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -893,13 +910,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -907,7 +924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -915,7 +932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -923,7 +940,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -931,7 +948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -939,7 +956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -1012,10 +1029,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
         <v>113</v>
@@ -1025,7 +1042,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -1046,10 +1063,10 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s">
         <v>113</v>
@@ -1059,7 +1076,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1080,10 +1097,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="10"/>
@@ -1094,7 +1111,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1111,10 +1128,10 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L16" s="4"/>
       <c r="N16" t="s">
@@ -1124,7 +1141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30">
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1141,10 +1158,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" t="s">
@@ -1154,7 +1171,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1171,10 +1188,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L18" s="4"/>
       <c r="N18" t="s">
@@ -1184,7 +1201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1204,7 +1221,7 @@
       <c r="L19" s="4"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1224,7 +1241,7 @@
       <c r="L20" s="4"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1241,10 +1258,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="L21" s="4"/>
       <c r="N21" t="s">
@@ -1254,7 +1271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1271,10 +1288,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1285,7 +1302,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1305,7 +1322,7 @@
       <c r="K23" s="4"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1325,7 +1342,7 @@
       <c r="K24" s="4"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1346,7 +1363,7 @@
       <c r="L25" s="4"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1367,7 +1384,7 @@
       <c r="L26" s="4"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1388,7 +1405,7 @@
       <c r="L27" s="4"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1409,7 +1426,7 @@
       <c r="L28" s="4"/>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1430,7 +1447,7 @@
       <c r="L29" s="4"/>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1449,7 +1466,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1468,7 +1485,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1487,7 +1504,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1506,7 +1523,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1525,7 +1542,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1544,7 +1561,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1561,10 +1578,10 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L36" s="4"/>
       <c r="N36" t="s">
@@ -1574,7 +1591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1591,7 +1608,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1612,7 +1629,7 @@
       <c r="L38" s="4"/>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1632,7 +1649,7 @@
       <c r="L39" s="4"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1651,7 +1668,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1671,7 +1688,7 @@
       <c r="L41" s="4"/>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1690,7 +1707,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1710,7 +1727,7 @@
       <c r="L43" s="4"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1730,7 +1747,7 @@
       <c r="L44" s="4"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1750,7 +1767,7 @@
       <c r="L45" s="4"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1770,7 +1787,7 @@
       <c r="L46" s="4"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1789,7 +1806,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1808,7 +1825,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1827,7 +1844,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1846,7 +1863,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1865,7 +1882,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1882,10 +1899,10 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L52" s="4"/>
       <c r="N52" t="s">
@@ -1895,7 +1912,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1915,7 +1932,7 @@
       <c r="L53" s="4"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1935,7 +1952,7 @@
       <c r="L54" s="4"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1955,7 +1972,7 @@
       <c r="L55" s="4"/>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1975,7 +1992,7 @@
       <c r="L56" s="4"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1994,7 +2011,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -2013,7 +2030,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -2032,7 +2049,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -2051,7 +2068,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -2070,7 +2087,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -2089,7 +2106,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -2109,7 +2126,7 @@
       <c r="L63" s="4"/>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2128,7 +2145,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2145,7 +2162,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2164,7 +2181,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2183,7 +2200,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2200,10 +2217,10 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L68" s="4"/>
       <c r="N68" t="s">
@@ -2213,7 +2230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2232,7 +2249,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2251,7 +2268,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2270,7 +2287,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2289,7 +2306,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2310,7 +2327,7 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2329,7 +2346,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2349,7 +2366,7 @@
       <c r="L75" s="4"/>
       <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2369,7 +2386,7 @@
       <c r="L76" s="4"/>
       <c r="O76" s="8"/>
     </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2389,7 +2406,7 @@
       <c r="L77" s="4"/>
       <c r="O77" s="8"/>
     </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2408,7 +2425,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2427,7 +2444,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2441,7 +2458,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2455,7 +2472,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2469,7 +2486,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2488,7 +2505,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2502,7 +2519,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2516,7 +2533,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2532,7 +2549,7 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
     </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2551,7 +2568,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2565,7 +2582,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2579,7 +2596,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2593,7 +2610,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2613,12 +2630,12 @@
       <c r="L91" s="4"/>
       <c r="O91" s="8"/>
     </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="4">
         <v>4</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>107</v>
@@ -2629,12 +2646,12 @@
       <c r="L92" s="4"/>
       <c r="O92" s="8"/>
     </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="4">
         <v>5</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>107</v>
@@ -2645,12 +2662,12 @@
       <c r="L93" s="4"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="4">
         <v>6</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>107</v>
@@ -2661,12 +2678,12 @@
       <c r="L94" s="4"/>
       <c r="O94" s="8"/>
     </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="4">
         <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>107</v>
@@ -2677,22 +2694,22 @@
       <c r="L95" s="4"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="4">
         <v>8</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L96" s="4"/>
       <c r="N96" t="s">
@@ -2702,22 +2719,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="4">
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L97" s="4"/>
       <c r="N97" t="s">
@@ -2727,22 +2744,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="4">
         <v>10</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L98" s="4"/>
       <c r="N98" t="s">

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_7/Product_TOC_School_AlignmnetCode-7.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_7/Product_TOC_School_AlignmnetCode-7.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3960" tabRatio="355"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
   <si>
     <t>Program Title</t>
   </si>
@@ -367,6 +362,12 @@
   </si>
   <si>
     <t>isbn 13 updated</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Program</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
     <t>Print awareness 4</t>
@@ -424,23 +425,13 @@
     <t>ELA.LA.20</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_Program_K2</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Course_K2</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_AlignCode_K1</t>
-  </si>
-  <si>
-    <t>EO1</t>
+    <t>Feldman_Product_TOC_AlignCode_J1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -572,14 +563,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -838,57 +821,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -896,13 +879,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -910,13 +893,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -924,7 +907,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -932,7 +915,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -940,7 +923,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -948,7 +931,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -956,7 +939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="30" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -1029,10 +1012,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s">
         <v>113</v>
@@ -1042,7 +1025,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -1063,10 +1046,10 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s">
         <v>113</v>
@@ -1076,7 +1059,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1097,10 +1080,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="10"/>
@@ -1111,7 +1094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1128,10 +1111,10 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L16" s="4"/>
       <c r="N16" t="s">
@@ -1141,7 +1124,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="30">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1158,10 +1141,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" t="s">
@@ -1171,7 +1154,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1188,10 +1171,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L18" s="4"/>
       <c r="N18" t="s">
@@ -1201,7 +1184,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1221,7 +1204,7 @@
       <c r="L19" s="4"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1241,7 +1224,7 @@
       <c r="L20" s="4"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1258,10 +1241,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L21" s="4"/>
       <c r="N21" t="s">
@@ -1271,7 +1254,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1288,10 +1271,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1302,7 +1285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1322,7 +1305,7 @@
       <c r="K23" s="4"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1342,7 +1325,7 @@
       <c r="K24" s="4"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1363,7 +1346,7 @@
       <c r="L25" s="4"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1384,7 +1367,7 @@
       <c r="L26" s="4"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1405,7 +1388,7 @@
       <c r="L27" s="4"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1426,7 +1409,7 @@
       <c r="L28" s="4"/>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1447,7 +1430,7 @@
       <c r="L29" s="4"/>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1466,7 +1449,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1485,7 +1468,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1504,7 +1487,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1523,7 +1506,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1542,7 +1525,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1561,7 +1544,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1578,10 +1561,10 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="L36" s="4"/>
       <c r="N36" t="s">
@@ -1591,7 +1574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1608,7 +1591,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1629,7 +1612,7 @@
       <c r="L38" s="4"/>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1649,7 +1632,7 @@
       <c r="L39" s="4"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1668,7 +1651,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1688,7 +1671,7 @@
       <c r="L41" s="4"/>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1707,7 +1690,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1727,7 +1710,7 @@
       <c r="L43" s="4"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1747,7 +1730,7 @@
       <c r="L44" s="4"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1767,7 +1750,7 @@
       <c r="L45" s="4"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1787,7 +1770,7 @@
       <c r="L46" s="4"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1806,7 +1789,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1825,7 +1808,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1844,7 +1827,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1863,7 +1846,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1882,7 +1865,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1899,10 +1882,10 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L52" s="4"/>
       <c r="N52" t="s">
@@ -1912,7 +1895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1932,7 +1915,7 @@
       <c r="L53" s="4"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1952,7 +1935,7 @@
       <c r="L54" s="4"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1972,7 +1955,7 @@
       <c r="L55" s="4"/>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1992,7 +1975,7 @@
       <c r="L56" s="4"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -2011,7 +1994,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -2030,7 +2013,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -2049,7 +2032,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -2068,7 +2051,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -2087,7 +2070,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -2106,7 +2089,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -2126,7 +2109,7 @@
       <c r="L63" s="4"/>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2145,7 +2128,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2162,7 +2145,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2181,7 +2164,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2200,7 +2183,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2217,10 +2200,10 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K68" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="L68" s="4"/>
       <c r="N68" t="s">
@@ -2230,7 +2213,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2249,7 +2232,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2268,7 +2251,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2287,7 +2270,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2306,7 +2289,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2327,7 +2310,7 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2346,7 +2329,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2366,7 +2349,7 @@
       <c r="L75" s="4"/>
       <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2386,7 +2369,7 @@
       <c r="L76" s="4"/>
       <c r="O76" s="8"/>
     </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2406,7 +2389,7 @@
       <c r="L77" s="4"/>
       <c r="O77" s="8"/>
     </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2425,7 +2408,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2444,7 +2427,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2458,7 +2441,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2472,7 +2455,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2486,7 +2469,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2505,7 +2488,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2519,7 +2502,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2533,7 +2516,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2549,7 +2532,7 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
     </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2568,7 +2551,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2582,7 +2565,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2596,7 +2579,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2610,7 +2593,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2630,12 +2613,12 @@
       <c r="L91" s="4"/>
       <c r="O91" s="8"/>
     </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="4">
         <v>4</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>107</v>
@@ -2646,12 +2629,12 @@
       <c r="L92" s="4"/>
       <c r="O92" s="8"/>
     </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C93" s="4">
         <v>5</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>107</v>
@@ -2662,12 +2645,12 @@
       <c r="L93" s="4"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C94" s="4">
         <v>6</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>107</v>
@@ -2678,12 +2661,12 @@
       <c r="L94" s="4"/>
       <c r="O94" s="8"/>
     </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="4">
         <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>107</v>
@@ -2694,22 +2677,22 @@
       <c r="L95" s="4"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="4">
         <v>8</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L96" s="4"/>
       <c r="N96" t="s">
@@ -2719,22 +2702,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="4">
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L97" s="4"/>
       <c r="N97" t="s">
@@ -2744,22 +2727,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="C98" s="4">
         <v>10</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L98" s="4"/>
       <c r="N98" t="s">

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_7/Product_TOC_School_AlignmnetCode-7.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_7/Product_TOC_School_AlignmnetCode-7.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3960" tabRatio="355"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
   <si>
     <t>Program Title</t>
   </si>
@@ -362,12 +367,6 @@
   </si>
   <si>
     <t>isbn 13 updated</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Program</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
     <t>Print awareness 4</t>
@@ -425,13 +424,23 @@
     <t>ELA.LA.20</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_AlignCode_J1</t>
+    <t>Feldman_Product_TOC_Program_1</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Course_1</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_AlignCode_ppe1</t>
+  </si>
+  <si>
+    <t>EO1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -563,6 +572,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -821,57 +838,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -879,13 +896,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -893,13 +910,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -907,7 +924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -915,7 +932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -923,7 +940,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -931,7 +948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -939,7 +956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -1012,10 +1029,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
         <v>113</v>
@@ -1025,7 +1042,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -1046,10 +1063,10 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s">
         <v>113</v>
@@ -1059,7 +1076,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1080,10 +1097,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="10"/>
@@ -1094,7 +1111,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1111,10 +1128,10 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L16" s="4"/>
       <c r="N16" t="s">
@@ -1124,7 +1141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30">
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1141,10 +1158,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" t="s">
@@ -1154,7 +1171,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1171,10 +1188,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L18" s="4"/>
       <c r="N18" t="s">
@@ -1184,7 +1201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1204,7 +1221,7 @@
       <c r="L19" s="4"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1224,7 +1241,7 @@
       <c r="L20" s="4"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1241,10 +1258,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="L21" s="4"/>
       <c r="N21" t="s">
@@ -1254,7 +1271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1271,10 +1288,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1285,7 +1302,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1305,7 +1322,7 @@
       <c r="K23" s="4"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1325,7 +1342,7 @@
       <c r="K24" s="4"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1346,7 +1363,7 @@
       <c r="L25" s="4"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1367,7 +1384,7 @@
       <c r="L26" s="4"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1388,7 +1405,7 @@
       <c r="L27" s="4"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1409,7 +1426,7 @@
       <c r="L28" s="4"/>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1430,7 +1447,7 @@
       <c r="L29" s="4"/>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1449,7 +1466,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1468,7 +1485,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1487,7 +1504,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1506,7 +1523,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1525,7 +1542,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1544,7 +1561,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1561,10 +1578,10 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L36" s="4"/>
       <c r="N36" t="s">
@@ -1574,7 +1591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1591,7 +1608,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1612,7 +1629,7 @@
       <c r="L38" s="4"/>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1632,7 +1649,7 @@
       <c r="L39" s="4"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1651,7 +1668,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1671,7 +1688,7 @@
       <c r="L41" s="4"/>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1690,7 +1707,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1710,7 +1727,7 @@
       <c r="L43" s="4"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1730,7 +1747,7 @@
       <c r="L44" s="4"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1750,7 +1767,7 @@
       <c r="L45" s="4"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1770,7 +1787,7 @@
       <c r="L46" s="4"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1789,7 +1806,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1808,7 +1825,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1827,7 +1844,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1846,7 +1863,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1865,7 +1882,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1882,10 +1899,10 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L52" s="4"/>
       <c r="N52" t="s">
@@ -1895,7 +1912,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1915,7 +1932,7 @@
       <c r="L53" s="4"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1935,7 +1952,7 @@
       <c r="L54" s="4"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1955,7 +1972,7 @@
       <c r="L55" s="4"/>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1975,7 +1992,7 @@
       <c r="L56" s="4"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1994,7 +2011,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -2013,7 +2030,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -2032,7 +2049,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -2051,7 +2068,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -2070,7 +2087,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -2089,7 +2106,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -2109,7 +2126,7 @@
       <c r="L63" s="4"/>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2128,7 +2145,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2145,7 +2162,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2164,7 +2181,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2183,7 +2200,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2200,10 +2217,10 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L68" s="4"/>
       <c r="N68" t="s">
@@ -2213,7 +2230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2232,7 +2249,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2251,7 +2268,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2270,7 +2287,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2289,7 +2306,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2310,7 +2327,7 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2329,7 +2346,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2349,7 +2366,7 @@
       <c r="L75" s="4"/>
       <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2369,7 +2386,7 @@
       <c r="L76" s="4"/>
       <c r="O76" s="8"/>
     </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2389,7 +2406,7 @@
       <c r="L77" s="4"/>
       <c r="O77" s="8"/>
     </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2408,7 +2425,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2427,7 +2444,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2441,7 +2458,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2455,7 +2472,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2469,7 +2486,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2488,7 +2505,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2502,7 +2519,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2516,7 +2533,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2532,7 +2549,7 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
     </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2551,7 +2568,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2565,7 +2582,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2579,7 +2596,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2593,7 +2610,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2613,12 +2630,12 @@
       <c r="L91" s="4"/>
       <c r="O91" s="8"/>
     </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="4">
         <v>4</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>107</v>
@@ -2629,12 +2646,12 @@
       <c r="L92" s="4"/>
       <c r="O92" s="8"/>
     </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="4">
         <v>5</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>107</v>
@@ -2645,12 +2662,12 @@
       <c r="L93" s="4"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="4">
         <v>6</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>107</v>
@@ -2661,12 +2678,12 @@
       <c r="L94" s="4"/>
       <c r="O94" s="8"/>
     </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="4">
         <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>107</v>
@@ -2677,22 +2694,22 @@
       <c r="L95" s="4"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="4">
         <v>8</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L96" s="4"/>
       <c r="N96" t="s">
@@ -2702,22 +2719,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="4">
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L97" s="4"/>
       <c r="N97" t="s">
@@ -2727,22 +2744,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="4">
         <v>10</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L98" s="4"/>
       <c r="N98" t="s">

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_7/Product_TOC_School_AlignmnetCode-7.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_7/Product_TOC_School_AlignmnetCode-7.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3960" tabRatio="355"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="144">
   <si>
     <t>Program Title</t>
   </si>
@@ -418,28 +413,47 @@
     <t>ELA.LA.1</t>
   </si>
   <si>
-    <t>ELA.LA.3</t>
-  </si>
-  <si>
-    <t>ELA.LA.20</t>
-  </si>
-  <si>
     <t>Feldman_Product_TOC_Program_1</t>
   </si>
   <si>
     <t>Feldman_Product_TOC_Course_1</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_AlignCode_ppe1</t>
-  </si>
-  <si>
     <t>EO1</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_25Feb-7Align</t>
+  </si>
+  <si>
+    <t>ELA.CP.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Psychology</t>
+  </si>
+  <si>
+    <t>ELA.CP.5</t>
+  </si>
+  <si>
+    <t>ELA.CP.6</t>
+  </si>
+  <si>
+    <t>ELA.CP.7</t>
+  </si>
+  <si>
+    <t>ELA.CP.8</t>
+  </si>
+  <si>
+    <t>ELA.CP.9</t>
+  </si>
+  <si>
+    <t>ELA.CP.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="7">
     <font>
@@ -838,21 +852,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="31.42578125" collapsed="true"/>
@@ -872,37 +886,37 @@
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -910,13 +924,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -924,7 +938,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -932,7 +946,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -940,7 +954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -948,7 +962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -956,7 +970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="30" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -1029,10 +1043,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s">
         <v>113</v>
@@ -1042,7 +1056,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -1063,10 +1077,10 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="N14" t="s">
         <v>113</v>
@@ -1076,7 +1090,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1097,10 +1111,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="10"/>
@@ -1111,7 +1125,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1128,10 +1142,10 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L16" s="4"/>
       <c r="N16" t="s">
@@ -1141,7 +1155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="30">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1158,10 +1172,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" t="s">
@@ -1171,7 +1185,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1188,10 +1202,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L18" s="4"/>
       <c r="N18" t="s">
@@ -1201,7 +1215,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1221,7 +1235,7 @@
       <c r="L19" s="4"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1241,7 +1255,7 @@
       <c r="L20" s="4"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1258,10 +1272,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L21" s="4"/>
       <c r="N21" t="s">
@@ -1271,7 +1285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1288,10 +1302,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1302,7 +1316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1322,7 +1336,7 @@
       <c r="K23" s="4"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1342,7 +1356,7 @@
       <c r="K24" s="4"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1363,7 +1377,7 @@
       <c r="L25" s="4"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1384,7 +1398,7 @@
       <c r="L26" s="4"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1405,7 +1419,7 @@
       <c r="L27" s="4"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1426,7 +1440,7 @@
       <c r="L28" s="4"/>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1447,7 +1461,7 @@
       <c r="L29" s="4"/>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1466,7 +1480,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1485,7 +1499,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1504,7 +1518,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1523,7 +1537,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1542,7 +1556,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1561,7 +1575,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1578,10 +1592,10 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L36" s="4"/>
       <c r="N36" t="s">
@@ -1591,7 +1605,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1608,7 +1622,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1629,7 +1643,7 @@
       <c r="L38" s="4"/>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1649,7 +1663,7 @@
       <c r="L39" s="4"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1668,7 +1682,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1688,7 +1702,7 @@
       <c r="L41" s="4"/>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1707,7 +1721,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1727,7 +1741,7 @@
       <c r="L43" s="4"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1747,7 +1761,7 @@
       <c r="L44" s="4"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1767,7 +1781,7 @@
       <c r="L45" s="4"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1787,7 +1801,7 @@
       <c r="L46" s="4"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1806,7 +1820,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1825,7 +1839,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1844,7 +1858,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1863,7 +1877,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1882,7 +1896,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1899,10 +1913,10 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L52" s="4"/>
       <c r="N52" t="s">
@@ -1912,7 +1926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1932,7 +1946,7 @@
       <c r="L53" s="4"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1952,7 +1966,7 @@
       <c r="L54" s="4"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1972,7 +1986,7 @@
       <c r="L55" s="4"/>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1992,7 +2006,7 @@
       <c r="L56" s="4"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -2011,7 +2025,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -2030,7 +2044,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -2049,7 +2063,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -2068,7 +2082,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -2087,7 +2101,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -2106,7 +2120,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -2126,7 +2140,7 @@
       <c r="L63" s="4"/>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2145,7 +2159,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2162,7 +2176,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2181,7 +2195,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2200,7 +2214,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2217,10 +2231,10 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L68" s="4"/>
       <c r="N68" t="s">
@@ -2230,7 +2244,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2249,7 +2263,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2268,7 +2282,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2287,7 +2301,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2306,7 +2320,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2327,7 +2341,7 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2346,7 +2360,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2366,7 +2380,7 @@
       <c r="L75" s="4"/>
       <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2386,7 +2400,7 @@
       <c r="L76" s="4"/>
       <c r="O76" s="8"/>
     </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2406,7 +2420,7 @@
       <c r="L77" s="4"/>
       <c r="O77" s="8"/>
     </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2425,7 +2439,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2444,7 +2458,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2458,7 +2472,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2472,7 +2486,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2486,7 +2500,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2505,7 +2519,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2519,7 +2533,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2533,7 +2547,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2549,7 +2563,7 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
     </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2568,7 +2582,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2582,7 +2596,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2596,7 +2610,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2610,7 +2624,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2630,7 +2644,7 @@
       <c r="L91" s="4"/>
       <c r="O91" s="8"/>
     </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="4">
         <v>4</v>
       </c>
@@ -2646,7 +2660,7 @@
       <c r="L92" s="4"/>
       <c r="O92" s="8"/>
     </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C93" s="4">
         <v>5</v>
       </c>
@@ -2662,7 +2676,7 @@
       <c r="L93" s="4"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C94" s="4">
         <v>6</v>
       </c>
@@ -2678,7 +2692,7 @@
       <c r="L94" s="4"/>
       <c r="O94" s="8"/>
     </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="4">
         <v>7</v>
       </c>
@@ -2694,7 +2708,7 @@
       <c r="L95" s="4"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="4">
         <v>8</v>
       </c>
@@ -2706,10 +2720,10 @@
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L96" s="4"/>
       <c r="N96" t="s">
@@ -2719,7 +2733,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="4">
         <v>9</v>
       </c>
@@ -2731,10 +2745,10 @@
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L97" s="4"/>
       <c r="N97" t="s">
@@ -2744,7 +2758,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:15" ht="20.100000000000001" customHeight="1">
       <c r="C98" s="4">
         <v>10</v>
       </c>
@@ -2756,10 +2770,10 @@
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L98" s="4"/>
       <c r="N98" t="s">
